--- a/end-of-grant/311117-unencumered-2021-05-26.xlsx
+++ b/end-of-grant/311117-unencumered-2021-05-26.xlsx
@@ -5,12 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Unencumbered funds" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Approved budget" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Approved budget" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Unencumbered funds 2021-05-26" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Unencumbered funds 2021-06-14" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Unencumbered funds 2021-07-04" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="adjustments" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="spending plan" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="vehicle maintenance" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="summary" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'spending plan'!$A$1:$G$16</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -21,7 +30,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="106">
+  <si>
+    <t xml:space="preserve">Approved Budget (from amended cooperative agreement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect Cost</t>
+  </si>
   <si>
     <t xml:space="preserve">Data extracted from Ellucian Budget Status Report 2021-05-26</t>
   </si>
@@ -83,46 +116,257 @@
     <t xml:space="preserve">Salary plus benefits (salary reimbursement excluded)</t>
   </si>
   <si>
-    <t xml:space="preserve">Travel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supplies etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Approved Budget (from amended cooperative agreement)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contracts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indirect Cost</t>
+    <t xml:space="preserve">Data extracted from Ellucian Budget Status Report 2021-06-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data extracted from Ellucian Budget Status Report 2021-07-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requested budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unencumbered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: Requested budget includes enough salary and benefits to take care of Jim and Chris until end of grant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimated cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball Mason jars (size ?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insect rearing supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case of 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bensons; Chris to get quote and req PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial shelving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris to pick up under open PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush cutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insect rearing facility repairs and maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quote from Guam Home Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace 1 aircon and maintain the other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quote from JWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire baskets for Mason jars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nipples and end caps for beetle transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insect field collection supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgTech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percival environmental unit repair (3 units)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lab equipment maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency repair; invoice submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percival environmental unit repair (1 unit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace 2 fans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field vehicle maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DroneDeploy drone mission planning and analysis software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field survey software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petty cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quote rec’d; need shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roland’s 4 runner maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see vehicle maintenance tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aubrey’s 4 runner maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris’s truck maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file cabinets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Office Supply, quote in hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roland’s 4 runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 tires/installed/aligned/balanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spare key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wiper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aubrey’s 4 runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris’s truck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Totals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fy21 opening balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5101025;5102035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fringe Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5105010;5105020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5200510;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5201515;5201530;5202005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5201010;5201020;5201050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Direct Charges (sum of above)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indirect Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTALS(sum of Direct charges + Indirect)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unencumbered data come from a 2021-06-14 Colleague status report.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipated personnel costs include professional compensation $9000 plus salary and benefits for Chris Cayanan and Jim Grasela.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0;\-[$$-409]#,##0"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$$-409]#,##0;[RED]\-[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -144,22 +388,42 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -188,7 +452,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,55 +469,235 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>20790</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>18776</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>18434</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <f aca="false">SUM(B1:B8)</f>
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="287" zoomScaleNormal="287" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,13 +705,13 @@
         <v>5101025</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>9000</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,7 +719,7 @@
         <v>5102035</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>33878.72</v>
@@ -286,7 +730,7 @@
         <v>5105010</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>17134.23</v>
@@ -297,7 +741,7 @@
         <v>5105020</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>-1303.57</v>
@@ -308,7 +752,7 @@
         <v>5200510</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>13964.22</v>
@@ -319,7 +763,7 @@
         <v>5201010</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>-380.46</v>
@@ -330,7 +774,7 @@
         <v>5201020</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0</v>
@@ -341,7 +785,7 @@
         <v>5201050</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>-70</v>
@@ -352,7 +796,7 @@
         <v>5201515</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-199.19</v>
@@ -363,7 +807,7 @@
         <v>5201530</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>6532.02</v>
@@ -374,7 +818,7 @@
         <v>5202005</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-5359.23</v>
@@ -385,13 +829,13 @@
         <v>5204025</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>17188.62</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -402,7 +846,7 @@
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="n">
         <f aca="false">SUM(C5:C7)</f>
@@ -411,7 +855,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="n">
         <f aca="false">C8</f>
@@ -420,7 +864,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="n">
         <f aca="false">SUM(C9:C14)</f>
@@ -438,94 +882,1492 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="287" zoomScaleNormal="287" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>86000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5101025</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5102035</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>28494.72</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5105010</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>16722.35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5105020</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-1469.63</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5200510</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>13964.22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5201010</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>-380.46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5201020</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5201050</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5201515</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-199.19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5201530</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>2249.73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5202005</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>20790</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C14" s="1" t="n">
+        <v>-5359.23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>5204025</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C15" s="1" t="n">
+        <v>17188.62</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>18776</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>18434</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2" t="n">
+        <f aca="false">SUM(C4:C15)</f>
+        <v>80141.13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="C18" s="1" t="n">
+        <f aca="false">SUM(C5:C7)</f>
+        <v>43747.44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <f aca="false">C8</f>
+        <v>13964.22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
-        <f aca="false">SUM(B1:B8)</f>
-        <v>200000</v>
+      <c r="C20" s="1" t="n">
+        <f aca="false">SUM(C9:C14)</f>
+        <v>-3759.15</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.23"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5101025</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5102035</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>11231.32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5105010</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2707.82</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5105020</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-1552.66</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5200510</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5201010</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>69.54</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5201020</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5201050</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-364.88</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5201515</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-231.96</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5201530</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>39165.11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>5202005</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>-11960.22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>5204025</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>12825.33</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2" t="n">
+        <f aca="false">SUM(C4:C15)</f>
+        <v>60889.62</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <f aca="false">SUM(C5:C7)</f>
+        <v>12386.48</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <f aca="false">C8</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <f aca="false">SUM(C9:C14)</f>
+        <v>26677.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="25.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="14.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>86000</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>64500</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>20790</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>15593</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>18776</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>63907</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">C5-((18776-18005)+(18005-2249.73))</f>
+        <v>47380.73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18434</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>36000</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>36000</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5" t="n">
+        <f aca="false">SUM(B1:B8)</f>
+        <v>200000</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <f aca="false">SUM(C2:C8)</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="true">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="35.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="16.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>167</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <f aca="false">C2*E2</f>
+        <v>2503.33</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>169</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <f aca="false">C3*E3</f>
+        <v>507</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>790.59</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <f aca="false">C4*E4</f>
+        <v>790.59</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>2101</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <f aca="false">C5*E5</f>
+        <v>2101</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <f aca="false">C6*E6</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>380.35</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <f aca="false">C7*E7</f>
+        <v>380.35</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>210</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <f aca="false">C8*E8</f>
+        <v>210</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <f aca="false">C9*E9</f>
+        <v>200</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>295</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <f aca="false">C10*E10</f>
+        <v>295</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <f aca="false">299*12</f>
+        <v>3588</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <f aca="false">C11*E11</f>
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <f aca="false">C12*E12</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <f aca="false">C13*E13</f>
+        <v>6000</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <f aca="false">C14*E14</f>
+        <v>2500</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <f aca="false">C15*E15</f>
+        <v>2500</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <f aca="false">C16*E16</f>
+        <v>2500</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>550</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G16">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="field survey software"/>
+        <filter val="field vehicle maintenance"/>
+        <filter val="insect field collection supplies"/>
+        <filter val="insect rearing facility repairs and maintenance"/>
+        <filter val="insect rearing supplies"/>
+        <filter val="lab equipment maintenance"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.97"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="16.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="13.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="23" t="n">
+        <v>86000</v>
+      </c>
+      <c r="C2" s="24" t="n">
+        <v>-21500</v>
+      </c>
+      <c r="D2" s="24" t="n">
+        <v>64500</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="18" t="n">
+        <f aca="false">9000+72720</f>
+        <v>81720</v>
+      </c>
+      <c r="G2" s="18" t="n">
+        <v>37495</v>
+      </c>
+      <c r="H2" s="18" t="n">
+        <f aca="false">B2-G2</f>
+        <v>48505</v>
+      </c>
+      <c r="I2" s="18" t="n">
+        <f aca="false">B2-H2</f>
+        <v>37495</v>
+      </c>
+      <c r="J2" s="18" t="n">
+        <f aca="false">I2+C2</f>
+        <v>15995</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="23" t="n">
+        <v>20790</v>
+      </c>
+      <c r="C3" s="24" t="n">
+        <v>-5197</v>
+      </c>
+      <c r="D3" s="24" t="n">
+        <v>15593</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <f aca="false">20071.12</f>
+        <v>20071.12</v>
+      </c>
+      <c r="G3" s="18" t="n">
+        <v>15253</v>
+      </c>
+      <c r="H3" s="18" t="n">
+        <f aca="false">B3-G3</f>
+        <v>5537</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <f aca="false">B3-H3</f>
+        <v>15253</v>
+      </c>
+      <c r="J3" s="18" t="n">
+        <f aca="false">I3+C3</f>
+        <v>10056</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="23" t="n">
+        <v>18434</v>
+      </c>
+      <c r="C4" s="24" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="D4" s="24" t="n">
+        <v>4470</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="18" t="n">
+        <f aca="false">15920.22</f>
+        <v>15920.22</v>
+      </c>
+      <c r="G4" s="18" t="n">
+        <v>13964</v>
+      </c>
+      <c r="H4" s="18" t="n">
+        <f aca="false">B4-G4</f>
+        <v>4470</v>
+      </c>
+      <c r="I4" s="18" t="n">
+        <f aca="false">B4-H4</f>
+        <v>13964</v>
+      </c>
+      <c r="J4" s="18" t="n">
+        <f aca="false">I4+C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18" t="n">
+        <f aca="false">B5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <f aca="false">B5-H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="18" t="n">
+        <f aca="false">I5+C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="n">
+        <v>18776</v>
+      </c>
+      <c r="C6" s="24" t="n">
+        <f aca="false">-SUM(C2:C4)</f>
+        <v>40661</v>
+      </c>
+      <c r="D6" s="24" t="n">
+        <v>59437</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="18" t="n">
+        <f aca="false">18005</f>
+        <v>18005</v>
+      </c>
+      <c r="G6" s="18" t="n">
+        <v>-3309</v>
+      </c>
+      <c r="H6" s="18" t="n">
+        <f aca="false">B6-G6</f>
+        <v>22085</v>
+      </c>
+      <c r="I6" s="18" t="n">
+        <f aca="false">B6-H6</f>
+        <v>-3309</v>
+      </c>
+      <c r="J6" s="18" t="n">
+        <f aca="false">I6+C6</f>
+        <v>37352</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="23" t="n">
+        <v>36000</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <f aca="false">1000+35000</f>
+        <v>36000</v>
+      </c>
+      <c r="G7" s="18" t="n">
+        <v>-450</v>
+      </c>
+      <c r="H7" s="18" t="n">
+        <f aca="false">B7-G7</f>
+        <v>36450</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <f aca="false">B7-H7</f>
+        <v>-450</v>
+      </c>
+      <c r="J7" s="18" t="n">
+        <f aca="false">I7+C7</f>
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="23" t="n">
+        <v>180000</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="n">
+        <f aca="false">SUM(D2:D8)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="23" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="n">
+        <f aca="false">B10</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="23" t="n">
+        <v>200000</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="n">
+        <f aca="false">SUM(D9:D10)</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
